--- a/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表v5.0.4.6.xlsx
+++ b/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表v5.0.4.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4.5 20161101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4.6 20161103\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -164,36 +164,31 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>afka升级</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>sho'yjin'rying'shousuan'ftiao'zh</t>
-    </rPh>
+    <t>是</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>优化</t>
+    <t>重要</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>房东APP、房东PC、BS(sync)、官网、租客APP</t>
-    <rPh sb="0" eb="1">
-      <t>fang'dong</t>
-    </rPh>
+    <t>房东PC菜单样式调整</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨菲</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfixs</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -201,24 +196,11 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>沙周麟</t>
-    <rPh sb="0" eb="1">
-      <t>y'b'q</t>
-    </rPh>
+    <t>马丁组</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>架构组</t>
-    <rPh sb="0" eb="1">
-      <t>jie'bao'z</t>
-    </rPh>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <rPh sb="0" eb="1">
-      <t>shi'chao</t>
-    </rPh>
+    <t>依米</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -344,6 +326,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -351,29 +334,34 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -393,7 +381,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -428,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -534,6 +523,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +793,9 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="24" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,10 +808,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1184,7 +1205,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,39 +1303,43 @@
       <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>44</v>
+      <c r="H2" s="68">
+        <v>42677</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>45</v>
+      <c r="I2" s="32" t="s">
+        <v>50</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="J2" s="68">
+        <v>42677</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="73">
-        <v>42671</v>
+      <c r="M2" s="31" t="s">
+        <v>51</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>46</v>
+      <c r="N2" s="31" t="s">
+        <v>52</v>
       </c>
-      <c r="H2" s="73">
-        <v>42671</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
       <c r="O2" s="39"/>
       <c r="P2" s="62"/>
       <c r="Q2" s="39"/>
@@ -6436,36 +6461,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">

--- a/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表v5.0.4.6.xlsx
+++ b/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表v5.0.4.6.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -201,6 +201,51 @@
   </si>
   <si>
     <t>依米</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博、傅其亮</t>
+    <rPh sb="0" eb="1">
+      <t>y'b'q</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'z</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司业务指标统计优化</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,6 +841,15 @@
     <xf numFmtId="14" fontId="24" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,14 +862,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1205,7 +1253,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,16 +1351,16 @@
       <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="71" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -1349,29 +1397,61 @@
       <c r="U2" s="42"/>
       <c r="V2" s="43"/>
     </row>
-    <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="43"/>
+    <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="68">
+        <v>42674</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="68">
+        <v>42674</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="68">
+        <v>42677</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="36"/>
     </row>
     <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="59"/>
@@ -6461,36 +6541,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">

--- a/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表v5.0.4.6.xlsx
+++ b/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表v5.0.4.6.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>优化代码未上线</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -247,6 +243,14 @@
   <si>
     <t>重要</t>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -850,6 +854,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,9 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1252,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1352,45 +1356,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="E2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="71" t="s">
+      <c r="F2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="68">
         <v>42677</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="68">
         <v>42677</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="39"/>
+      <c r="O2" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="68">
+        <v>42677</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="45"/>
@@ -1402,50 +1412,50 @@
         <v>2</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="68">
         <v>42674</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="68">
         <v>42674</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="31" t="s">
-        <v>56</v>
-      </c>
       <c r="O3" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="68">
         <v>42677</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R3" s="55"/>
       <c r="S3" s="55"/>
@@ -1498,9 +1508,7 @@
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
       <c r="T5" s="55"/>
-      <c r="U5" s="42" t="s">
-        <v>42</v>
-      </c>
+      <c r="U5" s="42"/>
       <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6541,36 +6549,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
